--- a/Data/chest.xlsx
+++ b/Data/chest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\DarkSoulsStatCalculator\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57F1299-2362-4701-ADA2-99EA78D2F59D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2F207C-1186-4555-B25B-574D01ABC7AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABE7D1C6-44CE-4881-8988-487231079DA3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>Alva Armor</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>Xanthous Overcoat</t>
+  </si>
+  <si>
+    <t>Naked</t>
   </si>
 </sst>
 </file>
@@ -652,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486905C9-E1A8-4A82-BC58-6B18C78D7E80}">
-  <dimension ref="A1:P93"/>
+  <dimension ref="A1:P94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,102 +669,102 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>12.4</v>
-      </c>
       <c r="C1">
-        <v>10.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="G1">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="I1">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="J1">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P1">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>3.2</v>
+        <v>12.4</v>
       </c>
       <c r="C2">
-        <v>3.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D2">
-        <v>3.2</v>
+        <v>12.4</v>
       </c>
       <c r="E2">
-        <v>3.2</v>
+        <v>11.4</v>
       </c>
       <c r="F2">
-        <v>12.3</v>
+        <v>9.5</v>
       </c>
       <c r="G2">
-        <v>13.9</v>
+        <v>11.4</v>
       </c>
       <c r="H2">
-        <v>11.8</v>
+        <v>9.5</v>
       </c>
       <c r="I2">
-        <v>13.2</v>
+        <v>10.9</v>
       </c>
       <c r="J2">
+        <v>59</v>
+      </c>
+      <c r="K2">
+        <v>35</v>
+      </c>
+      <c r="L2">
+        <v>37</v>
+      </c>
+      <c r="M2">
         <v>21</v>
       </c>
-      <c r="K2">
-        <v>38</v>
-      </c>
-      <c r="L2">
-        <v>27</v>
-      </c>
-      <c r="M2">
-        <v>86</v>
-      </c>
       <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2">
+        <v>9</v>
+      </c>
+      <c r="P2">
         <v>1.2</v>
-      </c>
-      <c r="O2">
-        <v>3.1</v>
-      </c>
-      <c r="P2">
-        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -816,699 +819,699 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="C4">
-        <v>6.8</v>
+        <v>3.6</v>
       </c>
       <c r="D4">
-        <v>4.4000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="E4">
-        <v>4.4000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="F4">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="G4">
-        <v>11.5</v>
+        <v>13.9</v>
       </c>
       <c r="H4">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="I4">
-        <v>13.7</v>
+        <v>13.2</v>
       </c>
       <c r="J4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L4">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N4">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="O4">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P4">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>3.7</v>
       </c>
       <c r="C5">
-        <v>8.1</v>
+        <v>6.8</v>
       </c>
       <c r="D5">
-        <v>14.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F5">
+        <v>12.4</v>
+      </c>
+      <c r="G5">
         <v>11.5</v>
       </c>
-      <c r="F5">
-        <v>7.3</v>
-      </c>
-      <c r="G5">
-        <v>7.3</v>
-      </c>
       <c r="H5">
-        <v>7.3</v>
+        <v>12.4</v>
       </c>
       <c r="I5">
-        <v>5.9</v>
+        <v>13.7</v>
       </c>
       <c r="J5">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="L5">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M5">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="N5">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="O5">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="P5">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>8.3000000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="D6">
-        <v>11.2</v>
+        <v>14.2</v>
       </c>
       <c r="E6">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="F6">
-        <v>10.5</v>
+        <v>7.3</v>
       </c>
       <c r="G6">
-        <v>10.5</v>
+        <v>7.3</v>
       </c>
       <c r="H6">
-        <v>9.8000000000000007</v>
+        <v>7.3</v>
       </c>
       <c r="I6">
-        <v>10.5</v>
+        <v>5.9</v>
       </c>
       <c r="J6">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="K6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N6">
-        <v>11.3</v>
+        <v>7.5</v>
       </c>
       <c r="O6">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="P6">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
+        <v>11.2</v>
+      </c>
+      <c r="C7">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D7">
+        <v>11.2</v>
+      </c>
+      <c r="E7">
+        <v>11.2</v>
+      </c>
+      <c r="F7">
+        <v>10.5</v>
+      </c>
+      <c r="G7">
+        <v>10.5</v>
+      </c>
+      <c r="H7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I7">
+        <v>10.5</v>
+      </c>
+      <c r="J7">
+        <v>34</v>
+      </c>
+      <c r="K7">
+        <v>28</v>
+      </c>
+      <c r="L7">
+        <v>31</v>
+      </c>
+      <c r="M7">
+        <v>26</v>
+      </c>
+      <c r="N7">
+        <v>11.3</v>
+      </c>
+      <c r="O7">
         <v>8.6</v>
       </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>8.6</v>
-      </c>
-      <c r="E7">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F7">
-        <v>10.4</v>
-      </c>
-      <c r="G7">
-        <v>11.4</v>
-      </c>
-      <c r="H7">
-        <v>10.4</v>
-      </c>
-      <c r="I7">
-        <v>9</v>
-      </c>
-      <c r="J7">
-        <v>40</v>
-      </c>
-      <c r="K7">
-        <v>62</v>
-      </c>
-      <c r="L7">
-        <v>47</v>
-      </c>
-      <c r="M7">
-        <v>52</v>
-      </c>
-      <c r="N7">
-        <v>4.8</v>
-      </c>
-      <c r="O7">
-        <v>6.9</v>
-      </c>
       <c r="P7">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>7.7</v>
+        <v>8.6</v>
       </c>
       <c r="C8">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="E8">
-        <v>6.8</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F8">
-        <v>9.6999999999999993</v>
+        <v>10.4</v>
       </c>
       <c r="G8">
-        <v>12.5</v>
+        <v>11.4</v>
       </c>
       <c r="H8">
-        <v>10.9</v>
+        <v>10.4</v>
       </c>
       <c r="I8">
-        <v>12.1</v>
+        <v>9</v>
       </c>
       <c r="J8">
         <v>40</v>
       </c>
       <c r="K8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L8">
         <v>47</v>
       </c>
       <c r="M8">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="N8">
-        <v>2.2000000000000002</v>
+        <v>4.8</v>
       </c>
       <c r="O8">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="P8">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="C9">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="D9">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="E9">
+        <v>6.8</v>
+      </c>
+      <c r="F9">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F9">
-        <v>12.6</v>
-      </c>
       <c r="G9">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="H9">
-        <v>10.4</v>
+        <v>10.9</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>12.1</v>
       </c>
       <c r="J9">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L9">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="N9">
-        <v>4.9000000000000004</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O9">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="P9">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>18.100000000000001</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>12.2</v>
+        <v>8.1</v>
       </c>
       <c r="D10">
-        <v>18.100000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="E10">
-        <v>18.100000000000001</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F10">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="G10">
-        <v>15.8</v>
+        <v>12.8</v>
       </c>
       <c r="H10">
-        <v>11.5</v>
+        <v>10.4</v>
       </c>
       <c r="I10">
-        <v>12.2</v>
+        <v>9</v>
       </c>
       <c r="J10">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="K10">
+        <v>67</v>
+      </c>
+      <c r="L10">
         <v>51</v>
       </c>
-      <c r="L10">
-        <v>57</v>
-      </c>
       <c r="M10">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="N10">
-        <v>20.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O10">
-        <v>15.8</v>
+        <v>7.8</v>
       </c>
       <c r="P10">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>15.8</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="C11">
         <v>12.2</v>
       </c>
       <c r="D11">
-        <v>14.4</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E11">
-        <v>13.8</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>12.2</v>
       </c>
       <c r="G11">
-        <v>14.1</v>
+        <v>15.8</v>
       </c>
       <c r="H11">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="I11">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="J11">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K11">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N11">
+        <v>20.9</v>
+      </c>
+      <c r="O11">
         <v>15.8</v>
       </c>
-      <c r="O11">
-        <v>13.4</v>
-      </c>
       <c r="P11">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>8.6999999999999993</v>
+        <v>15.8</v>
       </c>
       <c r="C12">
-        <v>7.8</v>
+        <v>12.2</v>
       </c>
       <c r="D12">
-        <v>9.4</v>
+        <v>14.4</v>
       </c>
       <c r="E12">
-        <v>6.9</v>
+        <v>13.8</v>
       </c>
       <c r="F12">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>7.8</v>
+        <v>14.1</v>
       </c>
       <c r="H12">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="I12">
-        <v>8.1999999999999993</v>
+        <v>12</v>
       </c>
       <c r="J12">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="K12">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="L12">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="N12">
-        <v>5.2</v>
+        <v>15.8</v>
       </c>
       <c r="O12">
-        <v>5.9</v>
+        <v>13.4</v>
       </c>
       <c r="P12">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>3.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C13">
-        <v>4.2</v>
+        <v>7.8</v>
       </c>
       <c r="D13">
-        <v>4.2</v>
+        <v>9.4</v>
       </c>
       <c r="E13">
-        <v>2.7</v>
+        <v>6.9</v>
       </c>
       <c r="F13">
-        <v>13.8</v>
+        <v>8.6</v>
       </c>
       <c r="G13">
-        <v>13.5</v>
+        <v>7.8</v>
       </c>
       <c r="H13">
-        <v>13.5</v>
+        <v>10.4</v>
       </c>
       <c r="I13">
-        <v>14.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J13">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="L13">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="M13">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="N13">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="P13">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>13.3</v>
+        <v>3.7</v>
       </c>
       <c r="C14">
-        <v>10.7</v>
+        <v>4.2</v>
       </c>
       <c r="D14">
-        <v>13.3</v>
+        <v>4.2</v>
       </c>
       <c r="E14">
-        <v>11.8</v>
+        <v>2.7</v>
       </c>
       <c r="F14">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="H14">
-        <v>6.9</v>
+        <v>13.5</v>
       </c>
       <c r="I14">
-        <v>10</v>
+        <v>14.1</v>
       </c>
       <c r="J14">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="K14">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L14">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="N14">
-        <v>9.9</v>
+        <v>0.5</v>
       </c>
       <c r="O14">
-        <v>10.5</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>13.3</v>
       </c>
       <c r="C15">
-        <v>8.1</v>
+        <v>10.7</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>13.3</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>11.8</v>
       </c>
       <c r="F15">
-        <v>5.9</v>
+        <v>13.6</v>
       </c>
       <c r="G15">
-        <v>7.3</v>
+        <v>10</v>
       </c>
       <c r="H15">
-        <v>8.1999999999999993</v>
+        <v>6.9</v>
       </c>
       <c r="I15">
-        <v>5.9</v>
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="K15">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="L15">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N15">
-        <v>2.9</v>
+        <v>9.9</v>
       </c>
       <c r="O15">
-        <v>4.8</v>
+        <v>10.5</v>
       </c>
       <c r="P15">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>18.3</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>13.9</v>
+        <v>8.1</v>
       </c>
       <c r="D16">
-        <v>18.5</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>17.5</v>
+        <v>9</v>
       </c>
       <c r="F16">
-        <v>11.9</v>
+        <v>5.9</v>
       </c>
       <c r="G16">
-        <v>12.9</v>
+        <v>7.3</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I16">
-        <v>13.3</v>
+        <v>5.9</v>
       </c>
       <c r="J16">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L16">
         <v>57</v>
       </c>
       <c r="M16">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="N16">
-        <v>23.8</v>
+        <v>2.9</v>
       </c>
       <c r="O16">
-        <v>17.100000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="P16">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>18.3</v>
+      </c>
+      <c r="C17">
+        <v>13.9</v>
+      </c>
+      <c r="D17">
+        <v>18.5</v>
+      </c>
+      <c r="E17">
+        <v>17.5</v>
+      </c>
+      <c r="F17">
+        <v>11.9</v>
+      </c>
+      <c r="G17">
+        <v>12.9</v>
+      </c>
+      <c r="H17">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>17.8</v>
-      </c>
-      <c r="C17">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>15.6</v>
-      </c>
-      <c r="E17">
-        <v>18.8</v>
-      </c>
-      <c r="F17">
-        <v>14.8</v>
-      </c>
-      <c r="G17">
-        <v>13.6</v>
-      </c>
-      <c r="H17">
-        <v>14.4</v>
-      </c>
       <c r="I17">
-        <v>12.7</v>
+        <v>13.3</v>
       </c>
       <c r="J17">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K17">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L17">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="N17">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="O17">
-        <v>17</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="P17">
         <v>1.4</v>
@@ -1516,1049 +1519,1049 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>11.1</v>
+        <v>17.8</v>
       </c>
       <c r="C18">
-        <v>6.8</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>13.2</v>
+        <v>15.6</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>18.8</v>
       </c>
       <c r="F18">
-        <v>8.3000000000000007</v>
+        <v>14.8</v>
       </c>
       <c r="G18">
-        <v>6.6</v>
+        <v>13.6</v>
       </c>
       <c r="H18">
-        <v>4.2</v>
+        <v>14.4</v>
       </c>
       <c r="I18">
-        <v>9</v>
+        <v>12.7</v>
       </c>
       <c r="J18">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K18">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="L18">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="N18">
-        <v>6.8</v>
+        <v>23.6</v>
       </c>
       <c r="O18">
-        <v>8.8000000000000007</v>
+        <v>17</v>
       </c>
       <c r="P18">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
+        <v>11.1</v>
+      </c>
+      <c r="C19">
+        <v>6.8</v>
+      </c>
+      <c r="D19">
+        <v>13.2</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G19">
+        <v>6.6</v>
+      </c>
+      <c r="H19">
         <v>4.2</v>
       </c>
-      <c r="C19">
-        <v>4.2</v>
-      </c>
-      <c r="D19">
-        <v>4.2</v>
-      </c>
-      <c r="E19">
-        <v>3.6</v>
-      </c>
-      <c r="F19">
-        <v>13.5</v>
-      </c>
-      <c r="G19">
-        <v>12.9</v>
-      </c>
-      <c r="H19">
-        <v>13.1</v>
-      </c>
       <c r="I19">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="J19">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="K19">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="N19">
-        <v>0.9</v>
+        <v>6.8</v>
       </c>
       <c r="O19">
-        <v>3</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="P19">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>4.9000000000000004</v>
+        <v>4.2</v>
       </c>
       <c r="C20">
-        <v>7.3</v>
+        <v>4.2</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="E20">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="F20">
-        <v>12.8</v>
+        <v>13.5</v>
       </c>
       <c r="G20">
-        <v>12.3</v>
+        <v>12.9</v>
       </c>
       <c r="H20">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="I20">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="J20">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K20">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N20">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="O20">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P20">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>3.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C21">
-        <v>3.8</v>
+        <v>7.3</v>
       </c>
       <c r="D21">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="F21">
-        <v>11.7</v>
+        <v>12.8</v>
       </c>
       <c r="G21">
-        <v>13.6</v>
+        <v>12.3</v>
       </c>
       <c r="H21">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="I21">
-        <v>12.2</v>
+        <v>13.2</v>
       </c>
       <c r="J21">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L21">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M21">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="N21">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="O21">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="P21">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>4.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="C22">
-        <v>4.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="D22">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="E22">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>11.7</v>
       </c>
       <c r="G22">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="H22">
-        <v>12.8</v>
+        <v>13.3</v>
       </c>
       <c r="I22">
-        <v>13.2</v>
+        <v>12.2</v>
       </c>
       <c r="J22">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M22">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="N22">
-        <v>4.9000000000000004</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O22">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="P22">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>3.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C23">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D23">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="E23">
-        <v>4.4000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="F23">
-        <v>12.3</v>
+        <v>13</v>
       </c>
       <c r="G23">
-        <v>11.6</v>
+        <v>13.7</v>
       </c>
       <c r="H23">
-        <v>13.5</v>
+        <v>12.8</v>
       </c>
       <c r="I23">
         <v>13.2</v>
       </c>
       <c r="J23">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K23">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="N23">
-        <v>1.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O23">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P23">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>10.5</v>
+        <v>3.6</v>
       </c>
       <c r="C24">
-        <v>7.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D24">
-        <v>12.2</v>
+        <v>3.6</v>
       </c>
       <c r="E24">
-        <v>11.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F24">
-        <v>8.3000000000000007</v>
+        <v>12.3</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>11.6</v>
       </c>
       <c r="H24">
-        <v>9.1</v>
+        <v>13.5</v>
       </c>
       <c r="I24">
-        <v>9.8000000000000007</v>
+        <v>13.2</v>
       </c>
       <c r="J24">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="K24">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L24">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="N24">
-        <v>6.7</v>
+        <v>1.6</v>
       </c>
       <c r="O24">
-        <v>7.3</v>
+        <v>4.2</v>
       </c>
       <c r="P24">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>12.6</v>
+        <v>10.5</v>
       </c>
       <c r="C25">
-        <v>9.1999999999999993</v>
+        <v>7.4</v>
       </c>
       <c r="D25">
-        <v>11.6</v>
+        <v>12.2</v>
       </c>
       <c r="E25">
-        <v>11.1</v>
+        <v>11.7</v>
       </c>
       <c r="F25">
-        <v>9.1999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G25">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="H25">
-        <v>4.4000000000000004</v>
+        <v>9.1</v>
       </c>
       <c r="I25">
-        <v>9.1999999999999993</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="J25">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N25">
-        <v>8.8000000000000007</v>
+        <v>6.7</v>
       </c>
       <c r="O25">
-        <v>9.1</v>
+        <v>7.3</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>3.6</v>
+        <v>12.6</v>
       </c>
       <c r="C26">
-        <v>3.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D26">
+        <v>11.6</v>
+      </c>
+      <c r="E26">
+        <v>11.1</v>
+      </c>
+      <c r="F26">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G26">
+        <v>7.7</v>
+      </c>
+      <c r="H26">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E26">
-        <v>3.6</v>
-      </c>
-      <c r="F26">
-        <v>12.5</v>
-      </c>
-      <c r="G26">
-        <v>12.7</v>
-      </c>
-      <c r="H26">
-        <v>11.6</v>
-      </c>
       <c r="I26">
-        <v>13.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J26">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L26">
         <v>33</v>
       </c>
       <c r="M26">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="N26">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O26">
+        <v>9.1</v>
+      </c>
+      <c r="P26">
         <v>1</v>
-      </c>
-      <c r="O26">
-        <v>3.5</v>
-      </c>
-      <c r="P26">
-        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="C27">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D27">
-        <v>2.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E27">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="F27">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="G27">
-        <v>11.1</v>
+        <v>12.7</v>
       </c>
       <c r="H27">
-        <v>12.7</v>
+        <v>11.6</v>
       </c>
       <c r="I27">
-        <v>11.7</v>
+        <v>13.2</v>
       </c>
       <c r="J27">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K27">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="N27">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>2.2999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="P27">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
+        <v>3.7</v>
+      </c>
+      <c r="C28">
+        <v>2.9</v>
+      </c>
+      <c r="D28">
+        <v>2.4</v>
+      </c>
+      <c r="E28">
+        <v>2.4</v>
+      </c>
+      <c r="F28">
+        <v>10.5</v>
+      </c>
+      <c r="G28">
+        <v>11.1</v>
+      </c>
+      <c r="H28">
+        <v>12.7</v>
+      </c>
+      <c r="I28">
         <v>11.7</v>
       </c>
-      <c r="C28">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="D28">
-        <v>11.7</v>
-      </c>
-      <c r="E28">
-        <v>11.1</v>
-      </c>
-      <c r="F28">
-        <v>6.6</v>
-      </c>
-      <c r="G28">
-        <v>7.5</v>
-      </c>
-      <c r="H28">
-        <v>4.2</v>
-      </c>
-      <c r="I28">
-        <v>10.4</v>
-      </c>
       <c r="J28">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K28">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="N28">
-        <v>8.6</v>
+        <v>0.9</v>
       </c>
       <c r="O28">
-        <v>8.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
-        <v>14.9</v>
+        <v>11.7</v>
       </c>
       <c r="C29">
-        <v>12.7</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D29">
-        <v>14.3</v>
+        <v>11.7</v>
       </c>
       <c r="E29">
-        <v>12.2</v>
+        <v>11.1</v>
       </c>
       <c r="F29">
-        <v>10.6</v>
+        <v>6.6</v>
       </c>
       <c r="G29">
-        <v>13.7</v>
+        <v>7.5</v>
       </c>
       <c r="H29">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="I29">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="J29">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L29">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N29">
-        <v>16.600000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="O29">
-        <v>12.4</v>
+        <v>8.6</v>
       </c>
       <c r="P29">
-        <v>1.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>15.6</v>
+        <v>14.9</v>
       </c>
       <c r="C30">
         <v>12.7</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>14.3</v>
       </c>
       <c r="E30">
-        <v>17</v>
+        <v>12.2</v>
       </c>
       <c r="F30">
-        <v>12.9</v>
+        <v>10.6</v>
       </c>
       <c r="G30">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="H30">
-        <v>13.8</v>
+        <v>7.5</v>
       </c>
       <c r="I30">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="J30">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N30">
-        <v>19.100000000000001</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="O30">
-        <v>13.8</v>
+        <v>12.4</v>
       </c>
       <c r="P30">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>14.2</v>
+        <v>15.6</v>
       </c>
       <c r="C31">
-        <v>14.1</v>
+        <v>12.7</v>
       </c>
       <c r="D31">
-        <v>16.899999999999999</v>
+        <v>17</v>
       </c>
       <c r="E31">
-        <v>13.6</v>
+        <v>17</v>
       </c>
       <c r="F31">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="G31">
-        <v>12.6</v>
+        <v>13.8</v>
       </c>
       <c r="H31">
-        <v>11.6</v>
+        <v>13.8</v>
       </c>
       <c r="I31">
-        <v>11.6</v>
+        <v>10.7</v>
       </c>
       <c r="J31">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="K31">
+        <v>40</v>
+      </c>
+      <c r="L31">
         <v>43</v>
       </c>
-      <c r="L31">
-        <v>46</v>
-      </c>
       <c r="M31">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N31">
-        <v>16.399999999999999</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="O31">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="P31">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32">
-        <v>9.3000000000000007</v>
+        <v>14.2</v>
       </c>
       <c r="C32">
-        <v>8.6</v>
+        <v>14.1</v>
       </c>
       <c r="D32">
-        <v>7.7</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="E32">
-        <v>5.5</v>
+        <v>13.6</v>
       </c>
       <c r="F32">
-        <v>9.6999999999999993</v>
+        <v>13.2</v>
       </c>
       <c r="G32">
-        <v>7.5</v>
+        <v>12.6</v>
       </c>
       <c r="H32">
-        <v>10.9</v>
+        <v>11.6</v>
       </c>
       <c r="I32">
-        <v>9.6999999999999993</v>
+        <v>11.6</v>
       </c>
       <c r="J32">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="K32">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="L32">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N32">
-        <v>0.8</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="O32">
-        <v>5.0999999999999996</v>
+        <v>13.9</v>
       </c>
       <c r="P32">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>12.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C33">
-        <v>9.3000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="D33">
-        <v>16.899999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="E33">
-        <v>11.5</v>
+        <v>5.5</v>
       </c>
       <c r="F33">
-        <v>7.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G33">
-        <v>11.5</v>
+        <v>7.5</v>
       </c>
       <c r="H33">
-        <v>5.3</v>
+        <v>10.9</v>
       </c>
       <c r="I33">
-        <v>6.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="J33">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="L33">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N33">
-        <v>12.6</v>
+        <v>0.8</v>
       </c>
       <c r="O33">
-        <v>10.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="P33">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>12.1</v>
+        <v>12.6</v>
       </c>
       <c r="C34">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D34">
-        <v>12.1</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="E34">
-        <v>11.1</v>
+        <v>11.5</v>
       </c>
       <c r="F34">
-        <v>9.1999999999999993</v>
+        <v>7.6</v>
       </c>
       <c r="G34">
-        <v>10.6</v>
+        <v>11.5</v>
       </c>
       <c r="H34">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="I34">
-        <v>8.5</v>
+        <v>6.7</v>
       </c>
       <c r="J34">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="K34">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N34">
-        <v>8.8000000000000007</v>
+        <v>12.6</v>
       </c>
       <c r="O34">
-        <v>8.9</v>
+        <v>10.8</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>12.1</v>
+      </c>
+      <c r="C35">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D35">
+        <v>12.1</v>
+      </c>
+      <c r="E35">
+        <v>11.1</v>
+      </c>
+      <c r="F35">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G35">
+        <v>10.6</v>
+      </c>
+      <c r="H35">
+        <v>6.8</v>
+      </c>
+      <c r="I35">
+        <v>8.5</v>
+      </c>
+      <c r="J35">
+        <v>46</v>
+      </c>
+      <c r="K35">
+        <v>32</v>
+      </c>
+      <c r="L35">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>13.2</v>
-      </c>
-      <c r="C35">
-        <v>12.1</v>
-      </c>
-      <c r="D35">
-        <v>13.2</v>
-      </c>
-      <c r="E35">
-        <v>13.7</v>
-      </c>
-      <c r="F35">
-        <v>11.1</v>
-      </c>
-      <c r="G35">
-        <v>11.6</v>
-      </c>
-      <c r="H35">
-        <v>8.5</v>
-      </c>
-      <c r="I35">
-        <v>11.6</v>
-      </c>
-      <c r="J35">
-        <v>63</v>
-      </c>
-      <c r="K35">
-        <v>46</v>
-      </c>
-      <c r="L35">
-        <v>51</v>
-      </c>
       <c r="M35">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N35">
-        <v>18.3</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="O35">
-        <v>12.8</v>
+        <v>8.9</v>
       </c>
       <c r="P35">
-        <v>1.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36">
-        <v>13.7</v>
+        <v>13.2</v>
       </c>
       <c r="C36">
-        <v>13.1</v>
+        <v>12.1</v>
       </c>
       <c r="D36">
         <v>13.2</v>
       </c>
       <c r="E36">
-        <v>11.6</v>
+        <v>13.7</v>
       </c>
       <c r="F36">
         <v>11.1</v>
       </c>
       <c r="G36">
-        <v>12.5</v>
+        <v>11.6</v>
       </c>
       <c r="H36">
-        <v>10.6</v>
+        <v>8.5</v>
       </c>
       <c r="I36">
-        <v>7.7</v>
+        <v>11.6</v>
       </c>
       <c r="J36">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="K36">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="L36">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="M36">
         <v>35</v>
       </c>
       <c r="N36">
-        <v>12.7</v>
+        <v>18.3</v>
       </c>
       <c r="O36">
-        <v>11.9</v>
+        <v>12.8</v>
       </c>
       <c r="P36">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>13.7</v>
+      </c>
+      <c r="C37">
+        <v>13.1</v>
+      </c>
+      <c r="D37">
+        <v>13.2</v>
+      </c>
+      <c r="E37">
+        <v>11.6</v>
+      </c>
+      <c r="F37">
+        <v>11.1</v>
+      </c>
+      <c r="G37">
+        <v>12.5</v>
+      </c>
+      <c r="H37">
+        <v>10.6</v>
+      </c>
+      <c r="I37">
+        <v>7.7</v>
+      </c>
+      <c r="J37">
+        <v>49</v>
+      </c>
+      <c r="K37">
+        <v>42</v>
+      </c>
+      <c r="L37">
+        <v>38</v>
+      </c>
+      <c r="M37">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>18.3</v>
-      </c>
-      <c r="C37">
-        <v>12.4</v>
-      </c>
-      <c r="D37">
-        <v>17.5</v>
-      </c>
-      <c r="E37">
-        <v>18.3</v>
-      </c>
-      <c r="F37">
-        <v>13.5</v>
-      </c>
-      <c r="G37">
-        <v>14.5</v>
-      </c>
-      <c r="H37">
-        <v>11.4</v>
-      </c>
-      <c r="I37">
-        <v>13.3</v>
-      </c>
-      <c r="J37">
-        <v>65</v>
-      </c>
-      <c r="K37">
-        <v>58</v>
-      </c>
-      <c r="L37">
-        <v>61</v>
-      </c>
-      <c r="M37">
-        <v>42</v>
-      </c>
       <c r="N37">
-        <v>21.4</v>
+        <v>12.7</v>
       </c>
       <c r="O37">
-        <v>16</v>
+        <v>11.9</v>
       </c>
       <c r="P37">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="C38">
-        <v>17.600000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="D38">
-        <v>16.600000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="E38">
-        <v>15.9</v>
+        <v>18.3</v>
       </c>
       <c r="F38">
-        <v>12.4</v>
+        <v>13.5</v>
       </c>
       <c r="G38">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="H38">
-        <v>12.6</v>
+        <v>11.4</v>
       </c>
       <c r="I38">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="J38">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="K38">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="L38">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M38">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N38">
-        <v>23.1</v>
+        <v>21.4</v>
       </c>
       <c r="O38">
-        <v>17.3</v>
+        <v>16</v>
       </c>
       <c r="P38">
         <v>1.3</v>
@@ -2566,749 +2569,749 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39">
-        <v>12.7</v>
+        <v>18.2</v>
       </c>
       <c r="C39">
-        <v>12.2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E39">
-        <v>11.1</v>
+        <v>15.9</v>
       </c>
       <c r="F39">
-        <v>8.3000000000000007</v>
+        <v>12.4</v>
       </c>
       <c r="G39">
-        <v>12.5</v>
+        <v>14.3</v>
       </c>
       <c r="H39">
-        <v>10.4</v>
+        <v>12.6</v>
       </c>
       <c r="I39">
-        <v>9</v>
+        <v>13.1</v>
       </c>
       <c r="J39">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="K39">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="L39">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="N39">
-        <v>8.6999999999999993</v>
+        <v>23.1</v>
       </c>
       <c r="O39">
-        <v>9.1999999999999993</v>
+        <v>17.3</v>
       </c>
       <c r="P39">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40">
-        <v>13.9</v>
+        <v>12.7</v>
       </c>
       <c r="C40">
-        <v>13.8</v>
+        <v>12.2</v>
       </c>
       <c r="D40">
-        <v>13.9</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <v>12.8</v>
+        <v>11.1</v>
       </c>
       <c r="F40">
-        <v>10.7</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G40">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="H40">
-        <v>11.2</v>
+        <v>10.4</v>
       </c>
       <c r="I40">
-        <v>11.2</v>
+        <v>9</v>
       </c>
       <c r="J40">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="K40">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="L40">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M40">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N40">
-        <v>17.3</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="O40">
-        <v>12.7</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="P40">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41">
-        <v>5.7</v>
+        <v>13.9</v>
       </c>
       <c r="C41">
-        <v>7.1</v>
+        <v>13.8</v>
       </c>
       <c r="D41">
-        <v>7.1</v>
+        <v>13.9</v>
       </c>
       <c r="E41">
-        <v>8</v>
+        <v>12.8</v>
       </c>
       <c r="F41">
-        <v>7.1</v>
+        <v>10.7</v>
       </c>
       <c r="G41">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="H41">
-        <v>8.8000000000000007</v>
+        <v>11.2</v>
       </c>
       <c r="I41">
-        <v>12.4</v>
+        <v>11.2</v>
       </c>
       <c r="J41">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="L41">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M41">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N41">
-        <v>1.9</v>
+        <v>17.3</v>
       </c>
       <c r="O41">
-        <v>5.0999999999999996</v>
+        <v>12.7</v>
       </c>
       <c r="P41">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42">
-        <v>13.2</v>
+        <v>5.7</v>
       </c>
       <c r="C42">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="D42">
-        <v>10.6</v>
+        <v>7.1</v>
       </c>
       <c r="E42">
-        <v>10.6</v>
+        <v>8</v>
       </c>
       <c r="F42">
-        <v>12.1</v>
+        <v>7.1</v>
       </c>
       <c r="G42">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="H42">
-        <v>8.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I42">
-        <v>11.1</v>
+        <v>12.4</v>
       </c>
       <c r="J42">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K42">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="L42">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="M42">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="N42">
-        <v>9.8000000000000007</v>
+        <v>1.9</v>
       </c>
       <c r="O42">
-        <v>10.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="P42">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43">
-        <v>11.9</v>
+        <v>13.2</v>
       </c>
       <c r="C43">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="D43">
-        <v>12.9</v>
+        <v>10.6</v>
       </c>
       <c r="E43">
-        <v>10.199999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="F43">
-        <v>6.9</v>
+        <v>12.1</v>
       </c>
       <c r="G43">
-        <v>10.7</v>
+        <v>12.3</v>
       </c>
       <c r="H43">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="I43">
-        <v>5.5</v>
+        <v>11.1</v>
       </c>
       <c r="J43">
         <v>47</v>
       </c>
       <c r="K43">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L43">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N43">
-        <v>8.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="O43">
-        <v>8.6</v>
+        <v>10.9</v>
       </c>
       <c r="P43">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44">
-        <v>7.1</v>
+        <v>11.9</v>
       </c>
       <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>12.9</v>
+      </c>
+      <c r="E44">
         <v>10.199999999999999</v>
       </c>
-      <c r="D44">
-        <v>8</v>
-      </c>
-      <c r="E44">
-        <v>9.5</v>
-      </c>
       <c r="F44">
-        <v>10.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="G44">
-        <v>8.8000000000000007</v>
+        <v>10.7</v>
       </c>
       <c r="H44">
-        <v>10.9</v>
+        <v>5.5</v>
       </c>
       <c r="I44">
-        <v>8.8000000000000007</v>
+        <v>5.5</v>
       </c>
       <c r="J44">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="L44">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="M44">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="N44">
-        <v>2.7</v>
+        <v>8.9</v>
       </c>
       <c r="O44">
-        <v>5.6</v>
+        <v>8.6</v>
       </c>
       <c r="P44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45">
-        <v>4.0999999999999996</v>
+        <v>7.1</v>
       </c>
       <c r="C45">
-        <v>3.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D45">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>4.8</v>
+        <v>9.5</v>
       </c>
       <c r="F45">
-        <v>9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G45">
-        <v>9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H45">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="I45">
-        <v>3.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J45">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="K45">
         <v>59</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M45">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>5.6</v>
       </c>
       <c r="P45">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46">
-        <v>16.899999999999999</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C46">
-        <v>14.1</v>
+        <v>3.1</v>
       </c>
       <c r="D46">
-        <v>19.7</v>
+        <v>8.1</v>
       </c>
       <c r="E46">
-        <v>16.2</v>
+        <v>4.8</v>
       </c>
       <c r="F46">
-        <v>13.2</v>
+        <v>9</v>
       </c>
       <c r="G46">
-        <v>13.7</v>
+        <v>9</v>
       </c>
       <c r="H46">
+        <v>11.1</v>
+      </c>
+      <c r="I46">
+        <v>3.6</v>
+      </c>
+      <c r="J46">
+        <v>63</v>
+      </c>
+      <c r="K46">
+        <v>59</v>
+      </c>
+      <c r="L46">
         <v>13</v>
       </c>
-      <c r="I46">
-        <v>13.2</v>
-      </c>
-      <c r="J46">
-        <v>86</v>
-      </c>
-      <c r="K46">
-        <v>62</v>
-      </c>
-      <c r="L46">
-        <v>62</v>
-      </c>
       <c r="M46">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N46">
-        <v>24.6</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>17.2</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47">
-        <v>18.3</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="C47">
-        <v>16.7</v>
+        <v>14.1</v>
       </c>
       <c r="D47">
-        <v>18.600000000000001</v>
+        <v>19.7</v>
       </c>
       <c r="E47">
-        <v>18.3</v>
+        <v>16.2</v>
       </c>
       <c r="F47">
-        <v>12.6</v>
+        <v>13.2</v>
       </c>
       <c r="G47">
-        <v>12.7</v>
+        <v>13.7</v>
       </c>
       <c r="H47">
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="I47">
-        <v>13.6</v>
+        <v>13.2</v>
       </c>
       <c r="J47">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="K47">
         <v>62</v>
       </c>
       <c r="L47">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M47">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N47">
-        <v>20.7</v>
+        <v>24.6</v>
       </c>
       <c r="O47">
         <v>17.2</v>
       </c>
       <c r="P47">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48">
-        <v>10.3</v>
+        <v>18.3</v>
       </c>
       <c r="C48">
-        <v>10.8</v>
+        <v>16.7</v>
       </c>
       <c r="D48">
-        <v>10.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E48">
-        <v>10.3</v>
+        <v>18.3</v>
       </c>
       <c r="F48">
-        <v>8.6999999999999993</v>
+        <v>12.6</v>
       </c>
       <c r="G48">
-        <v>9.4</v>
+        <v>12.7</v>
       </c>
       <c r="H48">
-        <v>7</v>
+        <v>12.2</v>
       </c>
       <c r="I48">
-        <v>8.6999999999999993</v>
+        <v>13.6</v>
       </c>
       <c r="J48">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="K48">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L48">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M48">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="N48">
-        <v>6.8</v>
+        <v>20.7</v>
       </c>
       <c r="O48">
-        <v>8.3000000000000007</v>
+        <v>17.2</v>
       </c>
       <c r="P48">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>10.3</v>
+      </c>
+      <c r="C49">
+        <v>10.8</v>
+      </c>
+      <c r="D49">
+        <v>10.3</v>
+      </c>
+      <c r="E49">
+        <v>10.3</v>
+      </c>
+      <c r="F49">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G49">
+        <v>9.4</v>
+      </c>
+      <c r="H49">
+        <v>7</v>
+      </c>
+      <c r="I49">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J49">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>18.5</v>
-      </c>
-      <c r="C49">
-        <v>17</v>
-      </c>
-      <c r="D49">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="E49">
-        <v>17.5</v>
-      </c>
-      <c r="F49">
-        <v>14.1</v>
-      </c>
-      <c r="G49">
-        <v>16.2</v>
-      </c>
-      <c r="H49">
-        <v>12.8</v>
-      </c>
-      <c r="I49">
-        <v>14.1</v>
-      </c>
-      <c r="J49">
-        <v>72</v>
-      </c>
       <c r="K49">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L49">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="M49">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="N49">
-        <v>27.4</v>
+        <v>6.8</v>
       </c>
       <c r="O49">
-        <v>21.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="P49">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50">
-        <v>12.4</v>
+        <v>18.5</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D50">
-        <v>12.9</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="E50">
-        <v>11.9</v>
+        <v>17.5</v>
       </c>
       <c r="F50">
-        <v>9.1999999999999993</v>
+        <v>14.1</v>
       </c>
       <c r="G50">
-        <v>8.4</v>
+        <v>16.2</v>
       </c>
       <c r="H50">
-        <v>3.8</v>
+        <v>12.8</v>
       </c>
       <c r="I50">
-        <v>8.4</v>
+        <v>14.1</v>
       </c>
       <c r="J50">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="K50">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="L50">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="M50">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="N50">
-        <v>9.5</v>
+        <v>27.4</v>
       </c>
       <c r="O50">
-        <v>8.6</v>
+        <v>21.6</v>
       </c>
       <c r="P50">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51">
-        <v>15.7</v>
+        <v>12.4</v>
       </c>
       <c r="C51">
-        <v>11.6</v>
+        <v>8</v>
       </c>
       <c r="D51">
-        <v>16.5</v>
+        <v>12.9</v>
       </c>
       <c r="E51">
-        <v>17.2</v>
+        <v>11.9</v>
       </c>
       <c r="F51">
-        <v>9.9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G51">
-        <v>11.6</v>
+        <v>8.4</v>
       </c>
       <c r="H51">
-        <v>13.8</v>
+        <v>3.8</v>
       </c>
       <c r="I51">
-        <v>13.2</v>
+        <v>8.4</v>
       </c>
       <c r="J51">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="K51">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="L51">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="M51">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N51">
-        <v>20.100000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="O51">
-        <v>14.8</v>
+        <v>8.6</v>
       </c>
       <c r="P51">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52">
-        <v>8.1999999999999993</v>
+        <v>15.7</v>
       </c>
       <c r="C52">
-        <v>4.2</v>
+        <v>11.6</v>
       </c>
       <c r="D52">
-        <v>8.1999999999999993</v>
+        <v>16.5</v>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>17.2</v>
       </c>
       <c r="F52">
-        <v>13.5</v>
+        <v>9.9</v>
       </c>
       <c r="G52">
-        <v>13.1</v>
+        <v>11.6</v>
       </c>
       <c r="H52">
-        <v>11.4</v>
+        <v>13.8</v>
       </c>
       <c r="I52">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="J52">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="K52">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="L52">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="M52">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="N52">
-        <v>2</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="O52">
-        <v>4.8</v>
+        <v>14.8</v>
       </c>
       <c r="P52">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53">
-        <v>3.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C53">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D53">
-        <v>3.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E53">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="F53">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="G53">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="H53">
-        <v>13.8</v>
+        <v>11.4</v>
       </c>
       <c r="I53">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="J53">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K53">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L53">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M53">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="N53">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="O53">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="P53">
         <v>0.4</v>
@@ -3316,1399 +3319,1399 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54">
+        <v>3.9</v>
+      </c>
+      <c r="C54">
+        <v>3.9</v>
+      </c>
+      <c r="D54">
+        <v>3.9</v>
+      </c>
+      <c r="E54">
+        <v>2.9</v>
+      </c>
+      <c r="F54">
+        <v>14.1</v>
+      </c>
+      <c r="G54">
+        <v>13.3</v>
+      </c>
+      <c r="H54">
         <v>13.8</v>
       </c>
-      <c r="C54">
-        <v>11.7</v>
-      </c>
-      <c r="D54">
+      <c r="I54">
         <v>13.8</v>
       </c>
-      <c r="E54">
-        <v>13.2</v>
-      </c>
-      <c r="F54">
-        <v>8.4</v>
-      </c>
-      <c r="G54">
-        <v>11</v>
-      </c>
-      <c r="H54">
-        <v>6.7</v>
-      </c>
-      <c r="I54">
-        <v>8.4</v>
-      </c>
       <c r="J54">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K54">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L54">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M54">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="N54">
-        <v>12.6</v>
+        <v>1.3</v>
       </c>
       <c r="O54">
-        <v>10.6</v>
+        <v>3.6</v>
       </c>
       <c r="P54">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55">
-        <v>18.2</v>
+        <v>13.8</v>
       </c>
       <c r="C55">
-        <v>15.5</v>
+        <v>11.7</v>
       </c>
       <c r="D55">
-        <v>18.2</v>
+        <v>13.8</v>
       </c>
       <c r="E55">
-        <v>18.2</v>
+        <v>13.2</v>
       </c>
       <c r="F55">
-        <v>12.3</v>
+        <v>8.4</v>
       </c>
       <c r="G55">
-        <v>12.7</v>
+        <v>11</v>
       </c>
       <c r="H55">
-        <v>11.2</v>
+        <v>6.7</v>
       </c>
       <c r="I55">
-        <v>12.3</v>
+        <v>8.4</v>
       </c>
       <c r="J55">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="K55">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="L55">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="M55">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N55">
-        <v>20.7</v>
+        <v>12.6</v>
       </c>
       <c r="O55">
-        <v>15.6</v>
+        <v>10.6</v>
       </c>
       <c r="P55">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>18.2</v>
+      </c>
+      <c r="C56">
+        <v>15.5</v>
+      </c>
+      <c r="D56">
+        <v>18.2</v>
+      </c>
+      <c r="E56">
+        <v>18.2</v>
+      </c>
+      <c r="F56">
+        <v>12.3</v>
+      </c>
+      <c r="G56">
+        <v>12.7</v>
+      </c>
+      <c r="H56">
+        <v>11.2</v>
+      </c>
+      <c r="I56">
+        <v>12.3</v>
+      </c>
+      <c r="J56">
+        <v>77</v>
+      </c>
+      <c r="K56">
+        <v>61</v>
+      </c>
+      <c r="L56">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>6.8</v>
-      </c>
-      <c r="C56">
-        <v>6.8</v>
-      </c>
-      <c r="D56">
-        <v>6.8</v>
-      </c>
-      <c r="E56">
-        <v>6.8</v>
-      </c>
-      <c r="F56">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="G56">
-        <v>9</v>
-      </c>
-      <c r="H56">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I56">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J56">
-        <v>36</v>
-      </c>
-      <c r="K56">
-        <v>58</v>
-      </c>
-      <c r="L56">
-        <v>58</v>
-      </c>
       <c r="M56">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N56">
-        <v>3.3</v>
+        <v>20.7</v>
       </c>
       <c r="O56">
-        <v>5.4</v>
+        <v>15.6</v>
       </c>
       <c r="P56">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57">
-        <v>9.8000000000000007</v>
+        <v>6.8</v>
       </c>
       <c r="C57">
-        <v>9.8000000000000007</v>
+        <v>6.8</v>
       </c>
       <c r="D57">
-        <v>9.1</v>
+        <v>6.8</v>
       </c>
       <c r="E57">
-        <v>9.8000000000000007</v>
+        <v>6.8</v>
       </c>
       <c r="F57">
-        <v>12.2</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G57">
-        <v>12.7</v>
+        <v>9</v>
       </c>
       <c r="H57">
-        <v>9.8000000000000007</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I57">
         <v>8.3000000000000007</v>
       </c>
       <c r="J57">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K57">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L57">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M57">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N57">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="O57">
-        <v>6.9</v>
+        <v>5.4</v>
       </c>
       <c r="P57">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58">
-        <v>16.600000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C58">
-        <v>10.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="D58">
-        <v>16.600000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="E58">
-        <v>15.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F58">
-        <v>13.3</v>
+        <v>12.2</v>
       </c>
       <c r="G58">
-        <v>11.2</v>
+        <v>12.7</v>
       </c>
       <c r="H58">
-        <v>11.2</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I58">
-        <v>13.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J58">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="K58">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="L58">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M58">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N58">
-        <v>18.399999999999999</v>
+        <v>6</v>
       </c>
       <c r="O58">
-        <v>14.7</v>
+        <v>6.9</v>
       </c>
       <c r="P58">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59">
-        <v>16</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="C59">
-        <v>12.4</v>
+        <v>10.1</v>
       </c>
       <c r="D59">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E59">
+        <v>15.9</v>
+      </c>
+      <c r="F59">
+        <v>13.3</v>
+      </c>
+      <c r="G59">
+        <v>11.2</v>
+      </c>
+      <c r="H59">
+        <v>11.2</v>
+      </c>
+      <c r="I59">
+        <v>13.6</v>
+      </c>
+      <c r="J59">
+        <v>67</v>
+      </c>
+      <c r="K59">
+        <v>41</v>
+      </c>
+      <c r="L59">
+        <v>61</v>
+      </c>
+      <c r="M59">
+        <v>50</v>
+      </c>
+      <c r="N59">
         <v>18.399999999999999</v>
       </c>
-      <c r="E59">
-        <v>15.3</v>
-      </c>
-      <c r="F59">
-        <v>12.6</v>
-      </c>
-      <c r="G59">
-        <v>13.8</v>
-      </c>
-      <c r="H59">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I59">
-        <v>11.9</v>
-      </c>
-      <c r="J59">
-        <v>75</v>
-      </c>
-      <c r="K59">
-        <v>43</v>
-      </c>
-      <c r="L59">
-        <v>58</v>
-      </c>
-      <c r="M59">
-        <v>34</v>
-      </c>
-      <c r="N59">
-        <v>20.8</v>
-      </c>
       <c r="O59">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="P59">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>16</v>
+      </c>
+      <c r="C60">
+        <v>12.4</v>
+      </c>
+      <c r="D60">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E60">
+        <v>15.3</v>
+      </c>
+      <c r="F60">
+        <v>12.6</v>
+      </c>
+      <c r="G60">
+        <v>13.8</v>
+      </c>
+      <c r="H60">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I60">
+        <v>11.9</v>
+      </c>
+      <c r="J60">
+        <v>75</v>
+      </c>
+      <c r="K60">
+        <v>43</v>
+      </c>
+      <c r="L60">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>3.5</v>
-      </c>
-      <c r="C60">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D60">
-        <v>3.5</v>
-      </c>
-      <c r="E60">
-        <v>3.1</v>
-      </c>
-      <c r="F60">
-        <v>13.7</v>
-      </c>
-      <c r="G60">
-        <v>12.8</v>
-      </c>
-      <c r="H60">
-        <v>13</v>
-      </c>
-      <c r="I60">
-        <v>13.7</v>
-      </c>
-      <c r="J60">
-        <v>19</v>
-      </c>
-      <c r="K60">
-        <v>38</v>
-      </c>
-      <c r="L60">
-        <v>30</v>
-      </c>
       <c r="M60">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="N60">
-        <v>0.7</v>
+        <v>20.8</v>
       </c>
       <c r="O60">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="P60">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="C61">
-        <v>2.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D61">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="E61">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="F61">
-        <v>9.1</v>
+        <v>13.7</v>
       </c>
       <c r="G61">
-        <v>7.6</v>
+        <v>12.8</v>
       </c>
       <c r="H61">
-        <v>8.4</v>
+        <v>13</v>
       </c>
       <c r="I61">
-        <v>9.1</v>
+        <v>13.7</v>
       </c>
       <c r="J61">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K61">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="L61">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M61">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O61">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62">
-        <v>18.3</v>
+        <v>2.7</v>
       </c>
       <c r="C62">
-        <v>13.9</v>
+        <v>2.7</v>
       </c>
       <c r="D62">
-        <v>17.5</v>
+        <v>2.7</v>
       </c>
       <c r="E62">
-        <v>15.3</v>
+        <v>2.1</v>
       </c>
       <c r="F62">
-        <v>13</v>
+        <v>9.1</v>
       </c>
       <c r="G62">
-        <v>12.6</v>
+        <v>7.6</v>
       </c>
       <c r="H62">
-        <v>13</v>
+        <v>8.4</v>
       </c>
       <c r="I62">
-        <v>12.6</v>
+        <v>9.1</v>
       </c>
       <c r="J62">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="K62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L62">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="M62">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="N62">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="O62">
-        <v>15.6</v>
+        <v>2</v>
       </c>
       <c r="P62">
-        <v>1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>18.3</v>
+      </c>
+      <c r="C63">
+        <v>13.9</v>
+      </c>
+      <c r="D63">
+        <v>17.5</v>
+      </c>
+      <c r="E63">
+        <v>15.3</v>
+      </c>
+      <c r="F63">
+        <v>13</v>
+      </c>
+      <c r="G63">
+        <v>12.6</v>
+      </c>
+      <c r="H63">
+        <v>13</v>
+      </c>
+      <c r="I63">
+        <v>12.6</v>
+      </c>
+      <c r="J63">
+        <v>67</v>
+      </c>
+      <c r="K63">
         <v>61</v>
       </c>
-      <c r="B63">
-        <v>12.7</v>
-      </c>
-      <c r="C63">
-        <v>10.5</v>
-      </c>
-      <c r="D63">
-        <v>14.9</v>
-      </c>
-      <c r="E63">
-        <v>10.5</v>
-      </c>
-      <c r="F63">
-        <v>11.7</v>
-      </c>
-      <c r="G63">
-        <v>11.2</v>
-      </c>
-      <c r="H63">
-        <v>7.4</v>
-      </c>
-      <c r="I63">
-        <v>9.1</v>
-      </c>
-      <c r="J63">
-        <v>51</v>
-      </c>
-      <c r="K63">
-        <v>33</v>
-      </c>
       <c r="L63">
+        <v>69</v>
+      </c>
+      <c r="M63">
         <v>37</v>
       </c>
-      <c r="M63">
-        <v>26</v>
-      </c>
       <c r="N63">
-        <v>11.3</v>
+        <v>20.2</v>
       </c>
       <c r="O63">
-        <v>10.4</v>
+        <v>15.6</v>
       </c>
       <c r="P63">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64">
-        <v>10.5</v>
+        <v>12.7</v>
       </c>
       <c r="C64">
         <v>10.5</v>
       </c>
       <c r="D64">
-        <v>8.1999999999999993</v>
+        <v>14.9</v>
       </c>
       <c r="E64">
-        <v>8.1999999999999993</v>
+        <v>10.5</v>
       </c>
       <c r="F64">
-        <v>10.6</v>
+        <v>11.7</v>
       </c>
       <c r="G64">
-        <v>9.9</v>
+        <v>11.2</v>
       </c>
       <c r="H64">
-        <v>12.8</v>
+        <v>7.4</v>
       </c>
       <c r="I64">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
       <c r="J64">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K64">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="L64">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="M64">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="N64">
-        <v>4.2</v>
+        <v>11.3</v>
       </c>
       <c r="O64">
-        <v>7</v>
+        <v>10.4</v>
       </c>
       <c r="P64">
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65">
-        <v>17.399999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="C65">
-        <v>14.3</v>
+        <v>10.5</v>
       </c>
       <c r="D65">
-        <v>17.399999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E65">
-        <v>16.600000000000001</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F65">
-        <v>13.9</v>
+        <v>10.6</v>
       </c>
       <c r="G65">
-        <v>13.6</v>
+        <v>9.9</v>
       </c>
       <c r="H65">
-        <v>13.3</v>
+        <v>12.8</v>
       </c>
       <c r="I65">
-        <v>9.3000000000000007</v>
+        <v>9.9</v>
       </c>
       <c r="J65">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="K65">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="L65">
+        <v>54</v>
+      </c>
+      <c r="M65">
         <v>60</v>
       </c>
-      <c r="M65">
-        <v>37</v>
-      </c>
       <c r="N65">
-        <v>20.6</v>
+        <v>4.2</v>
       </c>
       <c r="O65">
-        <v>15.5</v>
+        <v>7</v>
       </c>
       <c r="P65">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66">
-        <v>11.7</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>14.3</v>
       </c>
       <c r="D66">
-        <v>12.7</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E66">
-        <v>11.1</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F66">
-        <v>7.6</v>
+        <v>13.9</v>
       </c>
       <c r="G66">
-        <v>11</v>
+        <v>13.6</v>
       </c>
       <c r="H66">
-        <v>8.4</v>
+        <v>13.3</v>
       </c>
       <c r="I66">
-        <v>7.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J66">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K66">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L66">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M66">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N66">
-        <v>8.6999999999999993</v>
+        <v>20.6</v>
       </c>
       <c r="O66">
-        <v>9.3000000000000007</v>
+        <v>15.5</v>
       </c>
       <c r="P66">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67">
-        <v>12.6</v>
+        <v>11.7</v>
       </c>
       <c r="C67">
-        <v>12.6</v>
+        <v>10</v>
       </c>
       <c r="D67">
-        <v>12.1</v>
+        <v>12.7</v>
       </c>
       <c r="E67">
-        <v>11.6</v>
+        <v>11.1</v>
       </c>
       <c r="F67">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="G67">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="H67">
-        <v>4.4000000000000004</v>
+        <v>8.4</v>
       </c>
       <c r="I67">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="J67">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K67">
         <v>38</v>
       </c>
       <c r="L67">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="M67">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N67">
-        <v>10.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="O67">
-        <v>10.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68">
-        <v>3.6</v>
+        <v>12.6</v>
       </c>
       <c r="C68">
-        <v>3.1</v>
+        <v>12.6</v>
       </c>
       <c r="D68">
-        <v>3.1</v>
+        <v>12.1</v>
       </c>
       <c r="E68">
-        <v>3.6</v>
+        <v>11.6</v>
       </c>
       <c r="F68">
-        <v>12.7</v>
+        <v>7.7</v>
       </c>
       <c r="G68">
-        <v>11.6</v>
+        <v>11.1</v>
       </c>
       <c r="H68">
-        <v>12.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I68">
-        <v>12.7</v>
+        <v>6.8</v>
       </c>
       <c r="J68">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="K68">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L68">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="M68">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="N68">
+        <v>10.7</v>
+      </c>
+      <c r="O68">
+        <v>10.6</v>
+      </c>
+      <c r="P68">
         <v>1</v>
-      </c>
-      <c r="O68">
-        <v>3.7</v>
-      </c>
-      <c r="P68">
-        <v>0.3</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="C69">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D69">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="E69">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="F69">
-        <v>14.5</v>
+        <v>12.7</v>
       </c>
       <c r="G69">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="H69">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="I69">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="J69">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K69">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="L69">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="M69">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N69">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>4.4000000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="P69">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70">
-        <v>14.4</v>
+        <v>5.7</v>
       </c>
       <c r="C70">
-        <v>10.6</v>
+        <v>3.9</v>
       </c>
       <c r="D70">
-        <v>13.8</v>
+        <v>8</v>
       </c>
       <c r="E70">
-        <v>13.8</v>
+        <v>2.9</v>
       </c>
       <c r="F70">
-        <v>9.6999999999999993</v>
+        <v>14.5</v>
       </c>
       <c r="G70">
         <v>11.4</v>
       </c>
       <c r="H70">
-        <v>9.6999999999999993</v>
+        <v>12.6</v>
       </c>
       <c r="I70">
-        <v>7.5</v>
+        <v>12.6</v>
       </c>
       <c r="J70">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="K70">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="L70">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="M70">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="N70">
-        <v>12.5</v>
+        <v>2.7</v>
       </c>
       <c r="O70">
-        <v>12</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P70">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71">
-        <v>4.4000000000000004</v>
+        <v>14.4</v>
       </c>
       <c r="C71">
-        <v>3.1</v>
+        <v>10.6</v>
       </c>
       <c r="D71">
-        <v>4.4000000000000004</v>
+        <v>13.8</v>
       </c>
       <c r="E71">
-        <v>4.4000000000000004</v>
+        <v>13.8</v>
       </c>
       <c r="F71">
-        <v>11.1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G71">
-        <v>4.4000000000000004</v>
+        <v>11.4</v>
       </c>
       <c r="H71">
-        <v>5.4</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I71">
-        <v>4.4000000000000004</v>
+        <v>7.5</v>
       </c>
       <c r="J71">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K71">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="L71">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="M71">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="N71">
-        <v>0.5</v>
+        <v>12.5</v>
       </c>
       <c r="O71">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="P71">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C72">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="D72">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E72">
-        <v>3.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F72">
-        <v>13.4</v>
+        <v>11.1</v>
       </c>
       <c r="G72">
-        <v>12.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H72">
-        <v>11.8</v>
+        <v>5.4</v>
       </c>
       <c r="I72">
-        <v>12.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J72">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="K72">
+        <v>71</v>
+      </c>
+      <c r="L72">
+        <v>36</v>
+      </c>
+      <c r="M72">
         <v>60</v>
       </c>
-      <c r="L72">
-        <v>32</v>
-      </c>
-      <c r="M72">
-        <v>70</v>
-      </c>
       <c r="N72">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73">
-        <v>9.3000000000000007</v>
+        <v>4.2</v>
       </c>
       <c r="C73">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="D73">
-        <v>9.3000000000000007</v>
+        <v>4.2</v>
       </c>
       <c r="E73">
-        <v>8.6</v>
+        <v>3.2</v>
       </c>
       <c r="F73">
-        <v>12.9</v>
+        <v>13.4</v>
       </c>
       <c r="G73">
-        <v>9.3000000000000007</v>
+        <v>12.8</v>
       </c>
       <c r="H73">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="I73">
-        <v>13.3</v>
+        <v>12.3</v>
       </c>
       <c r="J73">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K73">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="L73">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="M73">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="N73">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O73">
-        <v>7.3</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74">
-        <v>4.4000000000000004</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C74">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="D74">
-        <v>3.7</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E74">
-        <v>3.7</v>
+        <v>8.6</v>
       </c>
       <c r="F74">
-        <v>12</v>
+        <v>12.9</v>
       </c>
       <c r="G74">
-        <v>13.1</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H74">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="I74">
-        <v>14.1</v>
+        <v>13.3</v>
       </c>
       <c r="J74">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="K74">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="L74">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="M74">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="N74">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="O74">
-        <v>4.2</v>
+        <v>7.3</v>
       </c>
       <c r="P74">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75">
-        <v>14.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C75">
-        <v>11.6</v>
+        <v>3.7</v>
       </c>
       <c r="D75">
-        <v>16.3</v>
+        <v>3.7</v>
       </c>
       <c r="E75">
-        <v>14.3</v>
+        <v>3.7</v>
       </c>
       <c r="F75">
-        <v>11.1</v>
+        <v>12</v>
       </c>
       <c r="G75">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="H75">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="I75">
-        <v>9.8000000000000007</v>
+        <v>14.1</v>
       </c>
       <c r="J75">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="K75">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="L75">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M75">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="N75">
-        <v>14.9</v>
+        <v>0.9</v>
       </c>
       <c r="O75">
-        <v>12.6</v>
+        <v>4.2</v>
       </c>
       <c r="P75">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76">
-        <v>3.6</v>
+        <v>14.9</v>
       </c>
       <c r="C76">
-        <v>3.2</v>
+        <v>11.6</v>
       </c>
       <c r="D76">
-        <v>3.6</v>
+        <v>16.3</v>
       </c>
       <c r="E76">
-        <v>3.2</v>
+        <v>14.3</v>
       </c>
       <c r="F76">
-        <v>13.5</v>
+        <v>11.1</v>
       </c>
       <c r="G76">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="H76">
-        <v>13.1</v>
+        <v>12.2</v>
       </c>
       <c r="I76">
-        <v>14.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="J76">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="K76">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="L76">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M76">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="N76">
-        <v>1.3</v>
+        <v>14.9</v>
       </c>
       <c r="O76">
-        <v>3.4</v>
+        <v>12.6</v>
       </c>
       <c r="P76">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77">
-        <v>13.7</v>
+        <v>3.6</v>
       </c>
       <c r="C77">
+        <v>3.2</v>
+      </c>
+      <c r="D77">
+        <v>3.6</v>
+      </c>
+      <c r="E77">
+        <v>3.2</v>
+      </c>
+      <c r="F77">
+        <v>13.5</v>
+      </c>
+      <c r="G77">
         <v>13.1</v>
       </c>
-      <c r="D77">
-        <v>16.3</v>
-      </c>
-      <c r="E77">
-        <v>13.7</v>
-      </c>
-      <c r="F77">
-        <v>12.8</v>
-      </c>
-      <c r="G77">
-        <v>11.6</v>
-      </c>
       <c r="H77">
-        <v>12.2</v>
+        <v>13.1</v>
       </c>
       <c r="I77">
-        <v>10.5</v>
+        <v>14.6</v>
       </c>
       <c r="J77">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="K77">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L77">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M77">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="N77">
-        <v>17.399999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="O77">
-        <v>12.9</v>
+        <v>3.4</v>
       </c>
       <c r="P77">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78">
-        <v>6.9</v>
+        <v>13.7</v>
       </c>
       <c r="C78">
-        <v>2.8</v>
+        <v>13.1</v>
       </c>
       <c r="D78">
-        <v>4.5</v>
+        <v>16.3</v>
       </c>
       <c r="E78">
-        <v>5.6</v>
+        <v>13.7</v>
       </c>
       <c r="F78">
-        <v>13.3</v>
+        <v>12.8</v>
       </c>
       <c r="G78">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="H78">
-        <v>12.8</v>
+        <v>12.2</v>
       </c>
       <c r="I78">
-        <v>12.6</v>
+        <v>10.5</v>
       </c>
       <c r="J78">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="K78">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="L78">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M78">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="N78">
-        <v>3.6</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="O78">
-        <v>4.2</v>
+        <v>12.9</v>
       </c>
       <c r="P78">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79">
-        <v>12.2</v>
+        <v>6.9</v>
       </c>
       <c r="C79">
-        <v>12.7</v>
+        <v>2.8</v>
       </c>
       <c r="D79">
-        <v>12.2</v>
+        <v>4.5</v>
       </c>
       <c r="E79">
-        <v>12.2</v>
+        <v>5.6</v>
       </c>
       <c r="F79">
-        <v>11.1</v>
+        <v>13.3</v>
       </c>
       <c r="G79">
-        <v>9.1</v>
+        <v>11.2</v>
       </c>
       <c r="H79">
-        <v>7.3</v>
+        <v>12.8</v>
       </c>
       <c r="I79">
-        <v>10.5</v>
+        <v>12.6</v>
       </c>
       <c r="J79">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="K79">
+        <v>43</v>
+      </c>
+      <c r="L79">
         <v>39</v>
       </c>
-      <c r="L79">
-        <v>35</v>
-      </c>
       <c r="M79">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="N79">
-        <v>11.5</v>
+        <v>3.6</v>
       </c>
       <c r="O79">
-        <v>10.6</v>
+        <v>4.2</v>
       </c>
       <c r="P79">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80">
-        <v>6.8</v>
+        <v>12.2</v>
       </c>
       <c r="C80">
-        <v>5.5</v>
+        <v>12.7</v>
       </c>
       <c r="D80">
-        <v>4.4000000000000004</v>
+        <v>12.2</v>
       </c>
       <c r="E80">
-        <v>6.8</v>
+        <v>12.2</v>
       </c>
       <c r="F80">
-        <v>4.2</v>
+        <v>11.1</v>
       </c>
       <c r="G80">
-        <v>5.2</v>
+        <v>9.1</v>
       </c>
       <c r="H80">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="I80">
-        <v>4.2</v>
+        <v>10.5</v>
       </c>
       <c r="J80">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="K80">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L80">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M80">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N80">
-        <v>2.2000000000000002</v>
+        <v>11.5</v>
       </c>
       <c r="O80">
-        <v>3.7</v>
+        <v>10.6</v>
       </c>
       <c r="P80">
-        <v>0.6</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="C81">
-        <v>9.3000000000000007</v>
+        <v>5.5</v>
       </c>
       <c r="D81">
-        <v>7.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E81">
-        <v>10</v>
+        <v>6.8</v>
       </c>
       <c r="F81">
-        <v>11.1</v>
+        <v>4.2</v>
       </c>
       <c r="G81">
-        <v>11.7</v>
+        <v>5.2</v>
       </c>
       <c r="H81">
-        <v>11.1</v>
+        <v>6.6</v>
       </c>
       <c r="I81">
-        <v>8.6</v>
+        <v>4.2</v>
       </c>
       <c r="J81">
+        <v>27</v>
+      </c>
+      <c r="K81">
+        <v>40</v>
+      </c>
+      <c r="L81">
         <v>38</v>
       </c>
-      <c r="K81">
-        <v>62</v>
-      </c>
-      <c r="L81">
-        <v>61</v>
-      </c>
       <c r="M81">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="N81">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O81">
         <v>3.7</v>
-      </c>
-      <c r="O81">
-        <v>6.7</v>
       </c>
       <c r="P81">
         <v>0.6</v>
@@ -4716,601 +4719,651 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82">
-        <v>14.3</v>
+        <v>7.7</v>
       </c>
       <c r="C82">
-        <v>13.1</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D82">
-        <v>17</v>
+        <v>7.7</v>
       </c>
       <c r="E82">
-        <v>16.3</v>
+        <v>10</v>
       </c>
       <c r="F82">
-        <v>13.1</v>
+        <v>11.1</v>
       </c>
       <c r="G82">
-        <v>12.9</v>
+        <v>11.7</v>
       </c>
       <c r="H82">
-        <v>11.9</v>
+        <v>11.1</v>
       </c>
       <c r="I82">
-        <v>11.9</v>
+        <v>8.6</v>
       </c>
       <c r="J82">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="K82">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="L82">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="M82">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="N82">
-        <v>19.899999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="O82">
-        <v>14.4</v>
+        <v>6.7</v>
       </c>
       <c r="P82">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83">
-        <v>13.5</v>
+        <v>14.3</v>
       </c>
       <c r="C83">
-        <v>10.9</v>
+        <v>13.1</v>
       </c>
       <c r="D83">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="E83">
-        <v>10.199999999999999</v>
+        <v>16.3</v>
       </c>
       <c r="F83">
-        <v>5.7</v>
+        <v>13.1</v>
       </c>
       <c r="G83">
-        <v>8</v>
+        <v>12.9</v>
       </c>
       <c r="H83">
-        <v>5.7</v>
+        <v>11.9</v>
       </c>
       <c r="I83">
-        <v>7.1</v>
+        <v>11.9</v>
       </c>
       <c r="J83">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K83">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="L83">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M83">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N83">
-        <v>9.1</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="O83">
-        <v>8.6999999999999993</v>
+        <v>14.4</v>
       </c>
       <c r="P83">
-        <v>1</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84">
-        <v>18.8</v>
+        <v>13.5</v>
       </c>
       <c r="C84">
-        <v>19.2</v>
+        <v>10.9</v>
       </c>
       <c r="D84">
-        <v>18.3</v>
+        <v>13.5</v>
       </c>
       <c r="E84">
-        <v>16</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F84">
-        <v>13.3</v>
+        <v>5.7</v>
       </c>
       <c r="G84">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H84">
-        <v>13.8</v>
+        <v>5.7</v>
       </c>
       <c r="I84">
-        <v>13.1</v>
+        <v>7.1</v>
       </c>
       <c r="J84">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K84">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="L84">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="M84">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="N84">
-        <v>27.1</v>
+        <v>9.1</v>
       </c>
       <c r="O84">
-        <v>23</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="P84">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85">
-        <v>4.5</v>
+        <v>18.8</v>
       </c>
       <c r="C85">
-        <v>4.5</v>
+        <v>19.2</v>
       </c>
       <c r="D85">
-        <v>4.5</v>
+        <v>18.3</v>
       </c>
       <c r="E85">
-        <v>3.8</v>
+        <v>16</v>
       </c>
       <c r="F85">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="G85">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="H85">
-        <v>12.6</v>
+        <v>13.8</v>
       </c>
       <c r="I85">
         <v>13.1</v>
       </c>
       <c r="J85">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="K85">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="L85">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M85">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="N85">
-        <v>1.7</v>
+        <v>27.1</v>
       </c>
       <c r="O85">
-        <v>4.0999999999999996</v>
+        <v>23</v>
       </c>
       <c r="P85">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86">
-        <v>11.7</v>
+        <v>4.5</v>
       </c>
       <c r="C86">
-        <v>9.1</v>
+        <v>4.5</v>
       </c>
       <c r="D86">
-        <v>12.2</v>
+        <v>4.5</v>
       </c>
       <c r="E86">
-        <v>11.7</v>
+        <v>3.8</v>
       </c>
       <c r="F86">
-        <v>11.2</v>
+        <v>13.1</v>
       </c>
       <c r="G86">
-        <v>9.8000000000000007</v>
+        <v>12.4</v>
       </c>
       <c r="H86">
-        <v>6</v>
+        <v>12.6</v>
       </c>
       <c r="I86">
-        <v>11.7</v>
+        <v>13.1</v>
       </c>
       <c r="J86">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="K86">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="L86">
         <v>33</v>
       </c>
       <c r="M86">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="N86">
-        <v>8.5</v>
+        <v>1.7</v>
       </c>
       <c r="O86">
-        <v>9.1999999999999993</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="P86">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87">
-        <v>14.3</v>
+        <v>11.7</v>
       </c>
       <c r="C87">
+        <v>9.1</v>
+      </c>
+      <c r="D87">
+        <v>12.2</v>
+      </c>
+      <c r="E87">
         <v>11.7</v>
       </c>
-      <c r="D87">
-        <v>15.6</v>
-      </c>
-      <c r="E87">
-        <v>14.3</v>
-      </c>
       <c r="F87">
+        <v>11.2</v>
+      </c>
+      <c r="G87">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G87">
+      <c r="H87">
+        <v>6</v>
+      </c>
+      <c r="I87">
         <v>11.7</v>
       </c>
-      <c r="H87">
-        <v>9.1</v>
-      </c>
-      <c r="I87">
-        <v>11.2</v>
-      </c>
       <c r="J87">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="L87">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M87">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N87">
-        <v>16.5</v>
+        <v>8.5</v>
       </c>
       <c r="O87">
-        <v>13.3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="P87">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88">
-        <v>10.4</v>
+        <v>14.3</v>
       </c>
       <c r="C88">
-        <v>10.4</v>
+        <v>11.7</v>
       </c>
       <c r="D88">
-        <v>5.9</v>
+        <v>15.6</v>
       </c>
       <c r="E88">
-        <v>9</v>
+        <v>14.3</v>
       </c>
       <c r="F88">
-        <v>12.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G88">
-        <v>13</v>
+        <v>11.7</v>
       </c>
       <c r="H88">
-        <v>13.2</v>
+        <v>9.1</v>
       </c>
       <c r="I88">
-        <v>10.4</v>
+        <v>11.2</v>
       </c>
       <c r="J88">
+        <v>63</v>
+      </c>
+      <c r="K88">
+        <v>58</v>
+      </c>
+      <c r="L88">
         <v>39</v>
-      </c>
-      <c r="K88">
-        <v>51</v>
-      </c>
-      <c r="L88">
-        <v>65</v>
       </c>
       <c r="M88">
         <v>42</v>
       </c>
       <c r="N88">
-        <v>4.9000000000000004</v>
+        <v>16.5</v>
       </c>
       <c r="O88">
-        <v>7.6</v>
+        <v>13.3</v>
       </c>
       <c r="P88">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89">
-        <v>12.9</v>
+        <v>10.4</v>
       </c>
       <c r="C89">
-        <v>10.199999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="D89">
-        <v>12.9</v>
+        <v>5.9</v>
       </c>
       <c r="E89">
-        <v>14.6</v>
+        <v>9</v>
       </c>
       <c r="F89">
-        <v>9.5</v>
+        <v>12.6</v>
       </c>
       <c r="G89">
-        <v>12.4</v>
+        <v>13</v>
       </c>
       <c r="H89">
-        <v>5.7</v>
+        <v>13.2</v>
       </c>
       <c r="I89">
-        <v>11.4</v>
+        <v>10.4</v>
       </c>
       <c r="J89">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K89">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="L89">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="M89">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N89">
-        <v>13</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O89">
-        <v>10.8</v>
+        <v>7.6</v>
       </c>
       <c r="P89">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90">
-        <v>17.5</v>
+        <v>12.9</v>
       </c>
       <c r="C90">
-        <v>14.4</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="D90">
-        <v>17.5</v>
+        <v>12.9</v>
       </c>
       <c r="E90">
-        <v>16.8</v>
+        <v>14.6</v>
       </c>
       <c r="F90">
-        <v>14.3</v>
+        <v>9.5</v>
       </c>
       <c r="G90">
-        <v>14</v>
+        <v>12.4</v>
       </c>
       <c r="H90">
-        <v>15</v>
+        <v>5.7</v>
       </c>
       <c r="I90">
-        <v>16.7</v>
+        <v>11.4</v>
       </c>
       <c r="J90">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="K90">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="L90">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="M90">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="N90">
-        <v>24.9</v>
+        <v>13</v>
       </c>
       <c r="O90">
-        <v>18.2</v>
+        <v>10.8</v>
       </c>
       <c r="P90">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91">
-        <v>11.8</v>
+        <v>17.5</v>
       </c>
       <c r="C91">
-        <v>10.1</v>
+        <v>14.4</v>
       </c>
       <c r="D91">
-        <v>11.8</v>
+        <v>17.5</v>
       </c>
       <c r="E91">
-        <v>11.8</v>
+        <v>16.8</v>
       </c>
       <c r="F91">
-        <v>7.8</v>
+        <v>14.3</v>
       </c>
       <c r="G91">
-        <v>11.2</v>
+        <v>14</v>
       </c>
       <c r="H91">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="I91">
-        <v>10</v>
+        <v>16.7</v>
       </c>
       <c r="J91">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="K91">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="L91">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="M91">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N91">
-        <v>8</v>
+        <v>24.9</v>
       </c>
       <c r="O91">
-        <v>9</v>
+        <v>18.2</v>
       </c>
       <c r="P91">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92">
-        <v>4.4000000000000004</v>
+        <v>11.8</v>
       </c>
       <c r="C92">
-        <v>6.8</v>
+        <v>10.1</v>
       </c>
       <c r="D92">
+        <v>11.8</v>
+      </c>
+      <c r="E92">
+        <v>11.8</v>
+      </c>
+      <c r="F92">
+        <v>7.8</v>
+      </c>
+      <c r="G92">
+        <v>11.2</v>
+      </c>
+      <c r="H92">
         <v>5.5</v>
       </c>
-      <c r="E92">
-        <v>5.5</v>
-      </c>
-      <c r="F92">
-        <v>6.6</v>
-      </c>
-      <c r="G92">
-        <v>5.2</v>
-      </c>
-      <c r="H92">
-        <v>5.2</v>
-      </c>
       <c r="I92">
-        <v>10.9</v>
+        <v>10</v>
       </c>
       <c r="J92">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="L92">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M92">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="N92">
-        <v>2.2999999999999998</v>
+        <v>8</v>
       </c>
       <c r="O92">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="P92">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C93">
+        <v>6.8</v>
+      </c>
+      <c r="D93">
+        <v>5.5</v>
+      </c>
+      <c r="E93">
+        <v>5.5</v>
+      </c>
+      <c r="F93">
+        <v>6.6</v>
+      </c>
+      <c r="G93">
+        <v>5.2</v>
+      </c>
+      <c r="H93">
+        <v>5.2</v>
+      </c>
+      <c r="I93">
+        <v>10.9</v>
+      </c>
+      <c r="J93">
+        <v>34</v>
+      </c>
+      <c r="K93">
+        <v>68</v>
+      </c>
+      <c r="L93">
+        <v>43</v>
+      </c>
+      <c r="M93">
+        <v>60</v>
+      </c>
+      <c r="N93">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="O93">
+        <v>4.2</v>
+      </c>
+      <c r="P93">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>91</v>
       </c>
-      <c r="B93">
+      <c r="B94">
         <v>10.1</v>
       </c>
-      <c r="C93">
+      <c r="C94">
         <v>6.9</v>
       </c>
-      <c r="D93">
+      <c r="D94">
         <v>10.7</v>
       </c>
-      <c r="E93">
+      <c r="E94">
         <v>9.4</v>
       </c>
-      <c r="F93">
+      <c r="F94">
         <v>11.7</v>
       </c>
-      <c r="G93">
+      <c r="G94">
         <v>5.5</v>
       </c>
-      <c r="H93">
+      <c r="H94">
         <v>10</v>
       </c>
-      <c r="I93">
+      <c r="I94">
         <v>11.7</v>
       </c>
-      <c r="J93">
+      <c r="J94">
         <v>39</v>
       </c>
-      <c r="K93">
+      <c r="K94">
         <v>46</v>
       </c>
-      <c r="L93">
+      <c r="L94">
         <v>33</v>
       </c>
-      <c r="M93">
+      <c r="M94">
         <v>22</v>
       </c>
-      <c r="N93">
+      <c r="N94">
         <v>7.7</v>
       </c>
-      <c r="O93">
+      <c r="O94">
         <v>8.6</v>
       </c>
-      <c r="P93">
+      <c r="P94">
         <v>0.9</v>
       </c>
     </row>
